--- a/results/DeterministicUSM/dataset_06/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/DeterministicUSM/dataset_06/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -642,13 +642,13 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>236.0947660528488</v>
+        <v>266.7783251863521</v>
       </c>
       <c r="H2">
-        <v>84.65343277549879</v>
+        <v>100.9335800930561</v>
       </c>
       <c r="I2">
-        <v>151.4413332773501</v>
+        <v>165.844745093296</v>
       </c>
       <c r="J2">
         <v>0.1</v>
@@ -663,7 +663,7 @@
         <v>0.1</v>
       </c>
       <c r="N2">
-        <v>0.8497333033549496</v>
+        <v>0.9305504649387747</v>
       </c>
       <c r="O2">
         <v>255.9446111077716</v>
@@ -681,16 +681,16 @@
         <v>3.293060345153191</v>
       </c>
       <c r="T2">
-        <v>2.788956789017322</v>
+        <v>2.643107724311323</v>
       </c>
       <c r="U2">
-        <v>1.025667615164741</v>
+        <v>0.9719553931386299</v>
       </c>
       <c r="V2">
-        <v>64.61504876699547</v>
+        <v>67.74180757306034</v>
       </c>
       <c r="W2">
-        <v>368.5673268754905</v>
+        <v>354.1639150595445</v>
       </c>
       <c r="X2">
         <v>520.0086601528405</v>
@@ -699,7 +699,7 @@
         <v>341.7864665781935</v>
       </c>
       <c r="Z2">
-        <v>1.078355531643527</v>
+        <v>1.036213980633195</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -722,13 +722,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>230.2294004208258</v>
+        <v>165.6333265226139</v>
       </c>
       <c r="H3">
-        <v>48.80415463578339</v>
+        <v>68.90562467259559</v>
       </c>
       <c r="I3">
-        <v>181.4252457850424</v>
+        <v>96.72770185001832</v>
       </c>
       <c r="J3">
         <v>0.1</v>
@@ -743,7 +743,7 @@
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.7062876380300054</v>
+        <v>0.3765604934203289</v>
       </c>
       <c r="O3">
         <v>283.2195834744782</v>
@@ -761,16 +761,16 @@
         <v>10.74919976833018</v>
       </c>
       <c r="T3">
-        <v>4.717413960737285</v>
+        <v>2.403770770668129</v>
       </c>
       <c r="U3">
-        <v>1.551260759776767</v>
+        <v>0.877038658827099</v>
       </c>
       <c r="V3">
-        <v>105.7172757844743</v>
+        <v>36.29480520152162</v>
       </c>
       <c r="W3">
-        <v>359.5050167868947</v>
+        <v>444.2025607219188</v>
       </c>
       <c r="X3">
         <v>540.9302625719371</v>
@@ -779,7 +779,7 @@
         <v>284.05864820944</v>
       </c>
       <c r="Z3">
-        <v>1.265601378634412</v>
+        <v>1.563770592875604</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -802,13 +802,13 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>172.6480345254631</v>
+        <v>140.0519284974429</v>
       </c>
       <c r="H4">
-        <v>56.98063104096489</v>
+        <v>54.02334900695099</v>
       </c>
       <c r="I4">
-        <v>115.6674034844982</v>
+        <v>86.02857949049194</v>
       </c>
       <c r="J4">
         <v>0.1</v>
@@ -823,10 +823,10 @@
         <v>0.1</v>
       </c>
       <c r="N4">
-        <v>0.6672290416635758</v>
+        <v>0.4962570691475112</v>
       </c>
       <c r="O4">
-        <v>213.0768555064352</v>
+        <v>213.0768555064351</v>
       </c>
       <c r="P4">
         <v>39.72198594603772</v>
@@ -838,19 +838,19 @@
         <v>106.6319396146482</v>
       </c>
       <c r="S4">
-        <v>5.364204493599587</v>
+        <v>5.364204493599585</v>
       </c>
       <c r="T4">
-        <v>3.029942479951508</v>
+        <v>2.592433291749887</v>
       </c>
       <c r="U4">
-        <v>1.108543635826735</v>
+        <v>0.9525969295464745</v>
       </c>
       <c r="V4">
-        <v>52.50188757864523</v>
+        <v>34.56610310265284</v>
       </c>
       <c r="W4">
-        <v>378.9933730359959</v>
+        <v>408.6321970300021</v>
       </c>
       <c r="X4">
         <v>494.660776520494</v>
@@ -859,7 +859,7 @@
         <v>321.3059069600966</v>
       </c>
       <c r="Z4">
-        <v>1.179540633478187</v>
+        <v>1.271785510873756</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -882,13 +882,13 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>213.4910615376098</v>
+        <v>230.4538281507102</v>
       </c>
       <c r="H5">
-        <v>54.22655129240074</v>
+        <v>76.43846824851217</v>
       </c>
       <c r="I5">
-        <v>159.2645102452091</v>
+        <v>154.015359902198</v>
       </c>
       <c r="J5">
         <v>0.1</v>
@@ -903,7 +903,7 @@
         <v>0.1</v>
       </c>
       <c r="N5">
-        <v>0.7369828415561106</v>
+        <v>0.7126928492057032</v>
       </c>
       <c r="O5">
         <v>277.646064202827</v>
@@ -921,16 +921,16 @@
         <v>4.511441679861252</v>
       </c>
       <c r="T5">
-        <v>3.937020821892619</v>
+        <v>3.014893330953108</v>
       </c>
       <c r="U5">
-        <v>1.370424300718918</v>
+        <v>1.103564450101576</v>
       </c>
       <c r="V5">
-        <v>84.95112660992226</v>
+        <v>69.66058372292196</v>
       </c>
       <c r="W5">
-        <v>312.8739222344255</v>
+        <v>318.1230725774365</v>
       </c>
       <c r="X5">
         <v>472.1384324796346</v>
@@ -939,7 +939,7 @@
         <v>256.0350155955613</v>
       </c>
       <c r="Z5">
-        <v>1.221996614434364</v>
+        <v>1.242498303747449</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -962,13 +962,13 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>212.6463418170202</v>
+        <v>182.8898421035437</v>
       </c>
       <c r="H6">
-        <v>89.10334139272528</v>
+        <v>59.94467408653779</v>
       </c>
       <c r="I6">
-        <v>123.5430004242949</v>
+        <v>122.945168017006</v>
       </c>
       <c r="J6">
         <v>0.1</v>
@@ -983,10 +983,10 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>0.5805678160757424</v>
+        <v>0.5777584116263845</v>
       </c>
       <c r="O6">
-        <v>266.5274308381956</v>
+        <v>266.5274308381955</v>
       </c>
       <c r="P6">
         <v>53.73058436578081</v>
@@ -995,22 +995,22 @@
         <v>1.601494787633478</v>
       </c>
       <c r="R6">
-        <v>126.747595674116</v>
+        <v>126.7475956741159</v>
       </c>
       <c r="S6">
-        <v>4.960441692272714</v>
+        <v>4.960441692272713</v>
       </c>
       <c r="T6">
-        <v>2.386513664844239</v>
+        <v>3.050977336860968</v>
       </c>
       <c r="U6">
-        <v>0.8698335833406703</v>
+        <v>1.115461977605</v>
       </c>
       <c r="V6">
-        <v>46.03792169303357</v>
+        <v>56.07916331354933</v>
       </c>
       <c r="W6">
-        <v>437.2015421522742</v>
+        <v>437.7993745595631</v>
       </c>
       <c r="X6">
         <v>560.7445425765691</v>
@@ -1019,7 +1019,7 @@
         <v>347.9476961041543</v>
       </c>
       <c r="Z6">
-        <v>1.256515122955155</v>
+        <v>1.258233290409581</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1042,13 +1042,13 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>205.1672779064816</v>
+        <v>260.9027813567229</v>
       </c>
       <c r="H7">
-        <v>36.51330350130669</v>
+        <v>85.18289501110146</v>
       </c>
       <c r="I7">
-        <v>168.6539744051749</v>
+        <v>175.7198863456214</v>
       </c>
       <c r="J7">
         <v>0.1</v>
@@ -1063,7 +1063,7 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.7086277627953341</v>
+        <v>0.7383163686412795</v>
       </c>
       <c r="O7">
         <v>270.1337736281939</v>
@@ -1075,22 +1075,22 @@
         <v>2.129034573580681</v>
       </c>
       <c r="R7">
-        <v>169.5885880067285</v>
+        <v>169.5885880067284</v>
       </c>
       <c r="S7">
-        <v>8.406746796974248</v>
+        <v>8.406746796974247</v>
       </c>
       <c r="T7">
-        <v>5.618973311991323</v>
+        <v>3.062854124912293</v>
       </c>
       <c r="U7">
-        <v>1.726148962517665</v>
+        <v>1.119347201810331</v>
       </c>
       <c r="V7">
-        <v>105.6265734483018</v>
+        <v>80.37065117284178</v>
       </c>
       <c r="W7">
-        <v>383.4841954985671</v>
+        <v>376.4182835581207</v>
       </c>
       <c r="X7">
         <v>552.1381699037421</v>
@@ -1099,7 +1099,7 @@
         <v>314.13736996347</v>
       </c>
       <c r="Z7">
-        <v>1.220753186872231</v>
+        <v>1.19826012295797</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1122,13 +1122,13 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>160.4450117940343</v>
+        <v>214.1746179297957</v>
       </c>
       <c r="H8">
-        <v>31.2286750514926</v>
+        <v>60.19188619063544</v>
       </c>
       <c r="I8">
-        <v>129.2163367425417</v>
+        <v>153.9827317391603</v>
       </c>
       <c r="J8">
         <v>0.1</v>
@@ -1143,7 +1143,7 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>0.5256624904128615</v>
+        <v>0.626414184824463</v>
       </c>
       <c r="O8">
         <v>271.743047679215</v>
@@ -1161,16 +1161,16 @@
         <v>10.48113019927533</v>
       </c>
       <c r="T8">
-        <v>5.137746367064194</v>
+        <v>3.558197482821475</v>
       </c>
       <c r="U8">
-        <v>1.636614533332262</v>
+        <v>1.269254091587979</v>
       </c>
       <c r="V8">
-        <v>78.10703329655831</v>
+        <v>77.58393391129829</v>
       </c>
       <c r="W8">
-        <v>396.6935749931811</v>
+        <v>371.9271799965626</v>
       </c>
       <c r="X8">
         <v>525.9099117357229</v>
@@ -1179,7 +1179,7 @@
         <v>280.0937481341433</v>
       </c>
       <c r="Z8">
-        <v>1.416288573507166</v>
+        <v>1.32786676773106</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1202,13 +1202,13 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>197.9084461395451</v>
+        <v>225.1463013118766</v>
       </c>
       <c r="H9">
-        <v>37.08521877955798</v>
+        <v>83.63149730630421</v>
       </c>
       <c r="I9">
-        <v>160.8232273599871</v>
+        <v>141.5148040055724</v>
       </c>
       <c r="J9">
         <v>0.1</v>
@@ -1223,7 +1223,7 @@
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>0.8891987534166503</v>
+        <v>0.7824416247417275</v>
       </c>
       <c r="O9">
         <v>234.5249700383749</v>
@@ -1241,16 +1241,16 @@
         <v>4.370419679924042</v>
       </c>
       <c r="T9">
-        <v>5.336585643890976</v>
+        <v>2.692123285647606</v>
       </c>
       <c r="U9">
-        <v>1.674586055943746</v>
+        <v>0.9903302077797448</v>
       </c>
       <c r="V9">
-        <v>98.72083711011621</v>
+        <v>58.69200590128897</v>
       </c>
       <c r="W9">
-        <v>377.6893079814448</v>
+        <v>396.9977313358595</v>
       </c>
       <c r="X9">
         <v>538.5125353414319</v>
@@ -1259,7 +1259,7 @@
         <v>357.6494529967466</v>
       </c>
       <c r="Z9">
-        <v>1.056032114174324</v>
+        <v>1.110019120704403</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1282,13 +1282,13 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>94.63587302102499</v>
+        <v>235.7368820803709</v>
       </c>
       <c r="H10">
-        <v>35.46554568902941</v>
+        <v>78.83438454712939</v>
       </c>
       <c r="I10">
-        <v>59.17032733199558</v>
+        <v>156.9024975332415</v>
       </c>
       <c r="J10">
         <v>0.1</v>
@@ -1303,7 +1303,7 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>0.2865292143598862</v>
+        <v>0.7597921352886223</v>
       </c>
       <c r="O10">
         <v>246.3321919146987</v>
@@ -1321,16 +1321,16 @@
         <v>6.185357031475651</v>
       </c>
       <c r="T10">
-        <v>2.668389028913174</v>
+        <v>2.990279982961506</v>
       </c>
       <c r="U10">
-        <v>0.9814749303596767</v>
+        <v>1.095367022805121</v>
       </c>
       <c r="V10">
-        <v>24.3617833466875</v>
+        <v>70.54991243717835</v>
       </c>
       <c r="W10">
-        <v>474.3849920458381</v>
+        <v>376.6528218445923</v>
       </c>
       <c r="X10">
         <v>533.5553193778337</v>
@@ -1339,7 +1339,7 @@
         <v>327.0481837470616</v>
       </c>
       <c r="Z10">
-        <v>1.450504896895335</v>
+        <v>1.151673791700047</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1362,13 +1362,13 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>154.6509861816701</v>
+        <v>246.4076049161262</v>
       </c>
       <c r="H11">
-        <v>52.92451613083695</v>
+        <v>90.12724390170976</v>
       </c>
       <c r="I11">
-        <v>101.7264700508332</v>
+        <v>156.2803610144165</v>
       </c>
       <c r="J11">
         <v>0.1</v>
@@ -1383,7 +1383,7 @@
         <v>0.1</v>
       </c>
       <c r="N11">
-        <v>0.4713431398799456</v>
+        <v>0.7241151297719995</v>
       </c>
       <c r="O11">
         <v>250.740036324805</v>
@@ -1395,22 +1395,22 @@
         <v>1.97142844029196</v>
       </c>
       <c r="R11">
-        <v>146.985171925747</v>
+        <v>146.9851719257471</v>
       </c>
       <c r="S11">
-        <v>7.180926690721301</v>
+        <v>7.180926690721303</v>
       </c>
       <c r="T11">
-        <v>2.922104867229222</v>
+        <v>2.733996894267082</v>
       </c>
       <c r="U11">
-        <v>1.072304201537777</v>
+        <v>1.005764602334427</v>
       </c>
       <c r="V11">
-        <v>44.97528903938287</v>
+        <v>65.63356939211545</v>
       </c>
       <c r="W11">
-        <v>447.9996754666655</v>
+        <v>393.4457845030822</v>
       </c>
       <c r="X11">
         <v>549.7261455174987</v>
@@ -1419,7 +1419,7 @@
         <v>333.9036131756816</v>
       </c>
       <c r="Z11">
-        <v>1.341703586870002</v>
+        <v>1.178321434623329</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1442,13 +1442,13 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>143.1082647381901</v>
+        <v>206.8900434056706</v>
       </c>
       <c r="H12">
-        <v>49.28918378370893</v>
+        <v>73.46952453191935</v>
       </c>
       <c r="I12">
-        <v>93.81908095448114</v>
+        <v>133.4205188737513</v>
       </c>
       <c r="J12">
         <v>0.1</v>
@@ -1463,7 +1463,7 @@
         <v>0.1</v>
       </c>
       <c r="N12">
-        <v>0.5314544228125943</v>
+        <v>0.7557836223508598</v>
       </c>
       <c r="O12">
         <v>220.7449590799793</v>
@@ -1481,16 +1481,16 @@
         <v>4.99284436746626</v>
       </c>
       <c r="T12">
-        <v>2.903441561665507</v>
+        <v>2.815998126077239</v>
       </c>
       <c r="U12">
-        <v>1.065896778768631</v>
+        <v>1.035316772840049</v>
       </c>
       <c r="V12">
-        <v>41.28189873129075</v>
+        <v>57.35628783327175</v>
       </c>
       <c r="W12">
-        <v>417.203777942873</v>
+        <v>377.6023400236029</v>
       </c>
       <c r="X12">
         <v>511.0228588973541</v>
@@ -1499,7 +1499,7 @@
         <v>334.4901649779654</v>
       </c>
       <c r="Z12">
-        <v>1.247282645725492</v>
+        <v>1.128889215766561</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1522,13 +1522,13 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <v>220.7647300168444</v>
+        <v>201.8964154828822</v>
       </c>
       <c r="H13">
-        <v>72.35583124611152</v>
+        <v>58.22950799663031</v>
       </c>
       <c r="I13">
-        <v>148.4088987707329</v>
+        <v>143.6669074862519</v>
       </c>
       <c r="J13">
         <v>0.1</v>
@@ -1543,7 +1543,7 @@
         <v>0.1</v>
       </c>
       <c r="N13">
-        <v>0.5646910774983923</v>
+        <v>0.5466479534667379</v>
       </c>
       <c r="O13">
         <v>334.6860897915695</v>
@@ -1561,16 +1561,16 @@
         <v>4.65671108283999</v>
       </c>
       <c r="T13">
-        <v>3.051097972545351</v>
+        <v>3.467252642673294</v>
       </c>
       <c r="U13">
-        <v>1.115501516836583</v>
+        <v>1.243362534735369</v>
       </c>
       <c r="V13">
-        <v>67.69585926372365</v>
+        <v>71.26651882716813</v>
       </c>
       <c r="W13">
-        <v>424.4216675500576</v>
+        <v>429.1636588345386</v>
       </c>
       <c r="X13">
         <v>572.8305663207905</v>
@@ -1579,7 +1579,7 @@
         <v>310.0162512298009</v>
       </c>
       <c r="Z13">
-        <v>1.369030384266705</v>
+        <v>1.384326328481468</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1602,13 +1602,13 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>126.5072054811232</v>
+        <v>211.74186356692</v>
       </c>
       <c r="H14">
-        <v>24.80724550826511</v>
+        <v>86.38032297122456</v>
       </c>
       <c r="I14">
-        <v>101.6999599728581</v>
+        <v>125.3615405956954</v>
       </c>
       <c r="J14">
         <v>0.1</v>
@@ -1623,10 +1623,10 @@
         <v>0.1</v>
       </c>
       <c r="N14">
-        <v>0.5198888657447961</v>
+        <v>0.6408465565346351</v>
       </c>
       <c r="O14">
-        <v>246.6460399241792</v>
+        <v>246.6460399241791</v>
       </c>
       <c r="P14">
         <v>51.02738625833838</v>
@@ -1638,19 +1638,19 @@
         <v>115.2203224013883</v>
       </c>
       <c r="S14">
-        <v>4.833601287659032</v>
+        <v>4.833601287659031</v>
       </c>
       <c r="T14">
-        <v>5.099607106277653</v>
+        <v>2.45127427501581</v>
       </c>
       <c r="U14">
-        <v>1.629163498777928</v>
+        <v>0.896608001596491</v>
       </c>
       <c r="V14">
-        <v>61.28490108556982</v>
+        <v>47.91225183920631</v>
       </c>
       <c r="W14">
-        <v>402.673992782568</v>
+        <v>379.0124121597306</v>
       </c>
       <c r="X14">
         <v>504.373952755426</v>
@@ -1659,7 +1659,7 @@
         <v>308.7552990895852</v>
       </c>
       <c r="Z14">
-        <v>1.304184880291665</v>
+        <v>1.227549497214492</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1682,13 +1682,13 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>178.7125900799045</v>
+        <v>187.7265655466325</v>
       </c>
       <c r="H15">
-        <v>36.06700585076283</v>
+        <v>68.73444371845704</v>
       </c>
       <c r="I15">
-        <v>142.6455842291417</v>
+        <v>118.9921218281754</v>
       </c>
       <c r="J15">
         <v>0.1</v>
@@ -1703,7 +1703,7 @@
         <v>0.1</v>
       </c>
       <c r="N15">
-        <v>0.6301877945546526</v>
+        <v>0.5256901798223133</v>
       </c>
       <c r="O15">
         <v>270.58170258979</v>
@@ -1715,22 +1715,22 @@
         <v>1.811224763027995</v>
       </c>
       <c r="R15">
-        <v>146.2479404749927</v>
+        <v>146.2479404749926</v>
       </c>
       <c r="S15">
-        <v>6.117935867173158</v>
+        <v>6.117935867173157</v>
       </c>
       <c r="T15">
-        <v>4.955015972752967</v>
+        <v>2.731186220340689</v>
       </c>
       <c r="U15">
-        <v>1.600400391339413</v>
+        <v>1.004736027768762</v>
       </c>
       <c r="V15">
-        <v>84.92393395113994</v>
+        <v>49.93214987559735</v>
       </c>
       <c r="W15">
-        <v>387.2796984538665</v>
+        <v>410.9331608548327</v>
       </c>
       <c r="X15">
         <v>529.9252826830082</v>
@@ -1739,7 +1739,7 @@
         <v>303.5711935341571</v>
       </c>
       <c r="Z15">
-        <v>1.27574587675853</v>
+        <v>1.353663224994356</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1762,13 +1762,13 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>148.7049257042092</v>
+        <v>234.7896889177444</v>
       </c>
       <c r="H16">
-        <v>24.06450650505774</v>
+        <v>105.7231500576114</v>
       </c>
       <c r="I16">
-        <v>124.6404191991514</v>
+        <v>129.066538860133</v>
       </c>
       <c r="J16">
         <v>0.1</v>
@@ -1783,7 +1783,7 @@
         <v>0.1</v>
       </c>
       <c r="N16">
-        <v>0.5468569300023121</v>
+        <v>0.5662764267047408</v>
       </c>
       <c r="O16">
         <v>258.0476107321789</v>
@@ -1801,16 +1801,16 @@
         <v>8.565563037215931</v>
       </c>
       <c r="T16">
-        <v>6.179429678849023</v>
+        <v>2.220797325749385</v>
       </c>
       <c r="U16">
-        <v>1.821225982235193</v>
+        <v>0.7978662871461693</v>
       </c>
       <c r="V16">
-        <v>80.81351470247246</v>
+        <v>44.71360165826928</v>
       </c>
       <c r="W16">
-        <v>386.0068654490365</v>
+        <v>381.5807457880549</v>
       </c>
       <c r="X16">
         <v>510.6472846481879</v>
@@ -1819,7 +1819,7 @@
         <v>282.7258442110621</v>
       </c>
       <c r="Z16">
-        <v>1.36530449321383</v>
+        <v>1.349649328496461</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1842,13 +1842,13 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>181.2077225774633</v>
+        <v>238.0465148132235</v>
       </c>
       <c r="H17">
-        <v>38.76920049598976</v>
+        <v>79.88760570304137</v>
       </c>
       <c r="I17">
-        <v>142.4385220814736</v>
+        <v>158.1589091101821</v>
       </c>
       <c r="J17">
         <v>0.1</v>
@@ -1863,7 +1863,7 @@
         <v>0.1</v>
       </c>
       <c r="N17">
-        <v>0.5653028241369381</v>
+        <v>0.6276931034938911</v>
       </c>
       <c r="O17">
         <v>279.6506718572644</v>
@@ -1881,16 +1881,16 @@
         <v>10.10220530825612</v>
       </c>
       <c r="T17">
-        <v>4.674012367013017</v>
+        <v>2.979767796497635</v>
       </c>
       <c r="U17">
-        <v>1.542017882029515</v>
+        <v>1.091845376842965</v>
       </c>
       <c r="V17">
-        <v>82.6557216446698</v>
+        <v>70.93399615626271</v>
       </c>
       <c r="W17">
-        <v>366.1807236290117</v>
+        <v>350.4603366003032</v>
       </c>
       <c r="X17">
         <v>508.6192457104853</v>
@@ -1899,7 +1899,7 @@
         <v>256.6507148634336</v>
       </c>
       <c r="Z17">
-        <v>1.426766817399516</v>
+        <v>1.365514749439863</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1922,13 +1922,13 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>215.838424089931</v>
+        <v>202.0744363694273</v>
       </c>
       <c r="H18">
-        <v>51.03871807257887</v>
+        <v>52.27295255707635</v>
       </c>
       <c r="I18">
-        <v>164.7997060173522</v>
+        <v>149.801483812351</v>
       </c>
       <c r="J18">
         <v>0.1</v>
@@ -1943,7 +1943,7 @@
         <v>0.1</v>
       </c>
       <c r="N18">
-        <v>0.8143342125487133</v>
+        <v>0.7402226393906018</v>
       </c>
       <c r="O18">
         <v>256.5739943439725</v>
@@ -1961,16 +1961,16 @@
         <v>4.733798782897701</v>
       </c>
       <c r="T18">
-        <v>4.228915463413504</v>
+        <v>3.865755165614265</v>
       </c>
       <c r="U18">
-        <v>1.441945568556221</v>
+        <v>1.352157048624018</v>
       </c>
       <c r="V18">
-        <v>91.20465266780677</v>
+        <v>79.12024255991132</v>
       </c>
       <c r="W18">
-        <v>347.9116792722265</v>
+        <v>362.9099014772277</v>
       </c>
       <c r="X18">
         <v>512.7113852895786</v>
@@ -1979,7 +1979,7 @@
         <v>310.3378346296353</v>
       </c>
       <c r="Z18">
-        <v>1.121074005325302</v>
+        <v>1.16940269919178</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -2002,13 +2002,13 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>131.4927572809979</v>
+        <v>276.6680449978445</v>
       </c>
       <c r="H19">
-        <v>29.42995280401293</v>
+        <v>60.0547280441868</v>
       </c>
       <c r="I19">
-        <v>102.0628044769849</v>
+        <v>216.6133169536577</v>
       </c>
       <c r="J19">
         <v>0.1</v>
@@ -2023,7 +2023,7 @@
         <v>0.1</v>
       </c>
       <c r="N19">
-        <v>0.4241696464597456</v>
+        <v>0.9002377951648864</v>
       </c>
       <c r="O19">
         <v>311.6478797008155</v>
@@ -2041,16 +2041,16 @@
         <v>4.387553372273242</v>
       </c>
       <c r="T19">
-        <v>4.467990762902893</v>
+        <v>4.606931943714389</v>
       </c>
       <c r="U19">
-        <v>1.496938813815134</v>
+        <v>1.527562113479655</v>
       </c>
       <c r="V19">
-        <v>58.00796583591046</v>
+        <v>124.8759896580338</v>
       </c>
       <c r="W19">
-        <v>457.4575310299875</v>
+        <v>342.9070185533147</v>
       </c>
       <c r="X19">
         <v>559.5203355069724</v>
@@ -2059,7 +2059,7 @@
         <v>318.9024475255162</v>
       </c>
       <c r="Z19">
-        <v>1.434474820057269</v>
+        <v>1.075272457812911</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2082,13 +2082,13 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>244.064053258217</v>
+        <v>278.0920084438587</v>
       </c>
       <c r="H20">
-        <v>59.58375320563739</v>
+        <v>92.70602459639815</v>
       </c>
       <c r="I20">
-        <v>184.4803000525796</v>
+        <v>185.3859838474605</v>
       </c>
       <c r="J20">
         <v>0.1</v>
@@ -2103,10 +2103,10 @@
         <v>0.1</v>
       </c>
       <c r="N20">
-        <v>0.7385403408393036</v>
+        <v>0.7421661156151107</v>
       </c>
       <c r="O20">
-        <v>287.0333613553369</v>
+        <v>287.033361355337</v>
       </c>
       <c r="P20">
         <v>37.24294389089678</v>
@@ -2115,22 +2115,22 @@
         <v>2.042135949525802</v>
       </c>
       <c r="R20">
-        <v>173.7352628786675</v>
+        <v>173.7352628786676</v>
       </c>
       <c r="S20">
-        <v>7.707053507805433</v>
+        <v>7.707053507805436</v>
       </c>
       <c r="T20">
-        <v>4.096151050033643</v>
+        <v>2.999718838711408</v>
       </c>
       <c r="U20">
-        <v>1.41004776450687</v>
+        <v>1.098518563846545</v>
       </c>
       <c r="V20">
-        <v>100.4643620440416</v>
+        <v>83.54669484790274</v>
       </c>
       <c r="W20">
-        <v>344.5013684370157</v>
+        <v>343.5956846421348</v>
       </c>
       <c r="X20">
         <v>528.9816684895953</v>
@@ -2139,7 +2139,7 @@
         <v>279.1912510251551</v>
       </c>
       <c r="Z20">
-        <v>1.233926088915931</v>
+        <v>1.230682134130259</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2162,13 +2162,13 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>265.3631195786421</v>
+        <v>217.0689966395415</v>
       </c>
       <c r="H21">
-        <v>79.06316542791306</v>
+        <v>61.46043180421134</v>
       </c>
       <c r="I21">
-        <v>186.299954150729</v>
+        <v>155.6085648353302</v>
       </c>
       <c r="J21">
         <v>0.1</v>
@@ -2183,34 +2183,34 @@
         <v>0.1</v>
       </c>
       <c r="N21">
-        <v>0.8344490412043628</v>
+        <v>0.6969804062591075</v>
       </c>
       <c r="O21">
-        <v>300.9254421366176</v>
+        <v>300.9254421366175</v>
       </c>
       <c r="P21">
         <v>77.66441006467498</v>
       </c>
       <c r="Q21">
-        <v>1.35446542400901</v>
+        <v>1.354465424009009</v>
       </c>
       <c r="R21">
-        <v>118.067273963283</v>
+        <v>118.0672739632829</v>
       </c>
       <c r="S21">
-        <v>3.874689087138139</v>
+        <v>3.874689087138138</v>
       </c>
       <c r="T21">
-        <v>3.356343224337389</v>
+        <v>3.531849521185233</v>
       </c>
       <c r="U21">
-        <v>1.210852055228169</v>
+        <v>1.261821677413177</v>
       </c>
       <c r="V21">
-        <v>90.56615779949571</v>
+        <v>78.05645968160201</v>
       </c>
       <c r="W21">
-        <v>313.9286316927443</v>
+        <v>344.6200210081431</v>
       </c>
       <c r="X21">
         <v>500.2285858434733</v>
@@ -2219,7 +2219,7 @@
         <v>276.9675537715307</v>
       </c>
       <c r="Z21">
-        <v>1.13344912578353</v>
+        <v>1.244261345111993</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2242,13 +2242,13 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>211.1491623259836</v>
+        <v>200.5125423949626</v>
       </c>
       <c r="H22">
-        <v>19.90733113705517</v>
+        <v>29.05429525990111</v>
       </c>
       <c r="I22">
-        <v>191.2418311889284</v>
+        <v>171.4582471350615</v>
       </c>
       <c r="J22">
         <v>0.1</v>
@@ -2263,34 +2263,34 @@
         <v>0.1</v>
       </c>
       <c r="N22">
-        <v>0.5632726283362522</v>
+        <v>0.5050032041278842</v>
       </c>
       <c r="O22">
-        <v>350.7799503801286</v>
+        <v>350.7799503801288</v>
       </c>
       <c r="P22">
         <v>11.26082310813159</v>
       </c>
       <c r="Q22">
-        <v>3.438829384645003</v>
+        <v>3.438829384645004</v>
       </c>
       <c r="R22">
         <v>300.7950778724647</v>
       </c>
       <c r="S22">
-        <v>31.15047159623934</v>
+        <v>31.15047159623935</v>
       </c>
       <c r="T22">
-        <v>10.60660320925461</v>
+        <v>6.901304629876782</v>
       </c>
       <c r="U22">
-        <v>2.361476751438085</v>
+        <v>1.931710470524186</v>
       </c>
       <c r="V22">
-        <v>144.2311315255931</v>
+        <v>115.3337607678093</v>
       </c>
       <c r="W22">
-        <v>363.7164281398886</v>
+        <v>383.5000121937555</v>
       </c>
       <c r="X22">
         <v>554.958259328817</v>
@@ -2299,7 +2299,7 @@
         <v>215.4391320568199</v>
       </c>
       <c r="Z22">
-        <v>1.688256096594198</v>
+        <v>1.780085207977032</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2322,13 +2322,13 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>79.3029600867941</v>
+        <v>122.9299487027485</v>
       </c>
       <c r="H23">
-        <v>16.40107126590938</v>
+        <v>19.91312385371694</v>
       </c>
       <c r="I23">
-        <v>62.90188882088472</v>
+        <v>103.0168248490315</v>
       </c>
       <c r="J23">
         <v>0.1</v>
@@ -2343,7 +2343,7 @@
         <v>0.1</v>
       </c>
       <c r="N23">
-        <v>0.2285149059019447</v>
+        <v>0.3742475858511501</v>
       </c>
       <c r="O23">
         <v>306.2078168977224</v>
@@ -2361,16 +2361,16 @@
         <v>9.895552384212243</v>
       </c>
       <c r="T23">
-        <v>4.83523050421896</v>
+        <v>6.173313117811128</v>
       </c>
       <c r="U23">
-        <v>1.575928801857604</v>
+        <v>1.820235665891937</v>
       </c>
       <c r="V23">
-        <v>37.05496823161897</v>
+        <v>66.77024659117245</v>
       </c>
       <c r="W23">
-        <v>429.6390622615251</v>
+        <v>389.5241262333782</v>
       </c>
       <c r="X23">
         <v>492.5409510824098</v>
@@ -2379,7 +2379,7 @@
         <v>217.2771184120115</v>
       </c>
       <c r="Z23">
-        <v>1.977378314852384</v>
+        <v>1.792752633504388</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2402,13 +2402,13 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>309.9712091395696</v>
+        <v>200.9649487910165</v>
       </c>
       <c r="H24">
-        <v>18.89378175305977</v>
+        <v>5.294579588166847</v>
       </c>
       <c r="I24">
-        <v>291.0774273865098</v>
+        <v>195.6703692028497</v>
       </c>
       <c r="J24">
         <v>0.1</v>
@@ -2423,10 +2423,10 @@
         <v>0.1</v>
       </c>
       <c r="N24">
-        <v>0.8528666835573948</v>
+        <v>0.5733207839263031</v>
       </c>
       <c r="O24">
-        <v>358.5152654778142</v>
+        <v>358.5152654778143</v>
       </c>
       <c r="P24">
         <v>17.22226740642064</v>
@@ -2441,16 +2441,16 @@
         <v>20.81696079949125</v>
       </c>
       <c r="T24">
-        <v>16.40599077468285</v>
+        <v>37.95673394733065</v>
       </c>
       <c r="U24">
-        <v>2.797646559266786</v>
+        <v>3.636446930717968</v>
       </c>
       <c r="V24">
-        <v>238.2193038735246</v>
+        <v>176.4169115100183</v>
       </c>
       <c r="W24">
-        <v>289.773122616094</v>
+        <v>385.1801807997542</v>
       </c>
       <c r="X24">
         <v>580.8505500026039</v>
@@ -2459,7 +2459,7 @@
         <v>239.5575519312102</v>
       </c>
       <c r="Z24">
-        <v>1.2096179823181</v>
+        <v>1.607881603792478</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2482,13 +2482,13 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>99.48507248908128</v>
+        <v>74.5989924978861</v>
       </c>
       <c r="H25">
-        <v>33.74267013423153</v>
+        <v>18.39888291039464</v>
       </c>
       <c r="I25">
-        <v>65.74240235484974</v>
+        <v>56.20010958749145</v>
       </c>
       <c r="J25">
         <v>0.1</v>
@@ -2503,7 +2503,7 @@
         <v>0.1</v>
       </c>
       <c r="N25">
-        <v>0.2351088682179044</v>
+        <v>0.2009835917999823</v>
       </c>
       <c r="O25">
         <v>316.0010099754927</v>
@@ -2521,16 +2521,16 @@
         <v>8.687158207606362</v>
       </c>
       <c r="T25">
-        <v>2.948346176912505</v>
+        <v>4.054539227256053</v>
       </c>
       <c r="U25">
-        <v>1.081244395150941</v>
+        <v>1.399837050347917</v>
       </c>
       <c r="V25">
-        <v>29.25832939478484</v>
+        <v>30.44467160450793</v>
       </c>
       <c r="W25">
-        <v>476.7985936137821</v>
+        <v>486.3408863811404</v>
       </c>
       <c r="X25">
         <v>542.5409959686318</v>
@@ -2539,7 +2539,7 @@
         <v>262.9156340961986</v>
       </c>
       <c r="Z25">
-        <v>1.813504150305971</v>
+        <v>1.84979827484581</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2562,13 +2562,13 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>234.9190325167382</v>
+        <v>220.5508206708802</v>
       </c>
       <c r="H26">
-        <v>26.49911508501402</v>
+        <v>43.59136400547621</v>
       </c>
       <c r="I26">
-        <v>208.4199174317242</v>
+        <v>176.959456665404</v>
       </c>
       <c r="J26">
         <v>0.1</v>
@@ -2583,7 +2583,7 @@
         <v>0.1</v>
       </c>
       <c r="N26">
-        <v>0.7116653507775704</v>
+        <v>0.6042412613585649</v>
       </c>
       <c r="O26">
         <v>323.8552710849078</v>
@@ -2601,16 +2601,16 @@
         <v>10.44929737710111</v>
       </c>
       <c r="T26">
-        <v>8.865165186198668</v>
+        <v>5.059507214391669</v>
       </c>
       <c r="U26">
-        <v>2.182129572877518</v>
+        <v>1.621269090096666</v>
       </c>
       <c r="V26">
-        <v>150.5954147496304</v>
+        <v>106.286125608173</v>
       </c>
       <c r="W26">
-        <v>347.6852985582739</v>
+        <v>379.1457593245941</v>
       </c>
       <c r="X26">
         <v>556.1052159899981</v>
@@ -2619,7 +2619,7 @@
         <v>263.2429638036254</v>
       </c>
       <c r="Z26">
-        <v>1.32077717685036</v>
+        <v>1.440288294305295</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2642,13 +2642,13 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>79.63995410587573</v>
+        <v>238.2329464789787</v>
       </c>
       <c r="H27">
-        <v>29.65799776721742</v>
+        <v>21.10822288538895</v>
       </c>
       <c r="I27">
-        <v>49.98195633865831</v>
+        <v>217.1247235935897</v>
       </c>
       <c r="J27">
         <v>0.1</v>
@@ -2663,7 +2663,7 @@
         <v>0.1</v>
       </c>
       <c r="N27">
-        <v>0.1560425615455285</v>
+        <v>0.6778585819019595</v>
       </c>
       <c r="O27">
         <v>327.7493575140708</v>
@@ -2681,16 +2681,16 @@
         <v>44.05475041497476</v>
       </c>
       <c r="T27">
-        <v>2.685277500219724</v>
+        <v>11.2862625988227</v>
       </c>
       <c r="U27">
-        <v>0.9877840746575152</v>
+        <v>2.423586286937319</v>
       </c>
       <c r="V27">
-        <v>20.68625845797281</v>
+        <v>165.9671240669446</v>
       </c>
       <c r="W27">
-        <v>483.6493671838161</v>
+        <v>316.5065999288847</v>
       </c>
       <c r="X27">
         <v>533.6313235224744</v>
@@ -2699,7 +2699,7 @@
         <v>213.3215577533762</v>
       </c>
       <c r="Z27">
-        <v>2.267231555391928</v>
+        <v>1.483706584848785</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2722,13 +2722,13 @@
         <v>2</v>
       </c>
       <c r="G28">
-        <v>315.2171098890023</v>
+        <v>347.9732782748947</v>
       </c>
       <c r="H28">
-        <v>13.02869124930779</v>
+        <v>21.91801097138399</v>
       </c>
       <c r="I28">
-        <v>302.1884186396945</v>
+        <v>326.0552673035107</v>
       </c>
       <c r="J28">
         <v>0.1</v>
@@ -2743,7 +2743,7 @@
         <v>0.1</v>
       </c>
       <c r="N28">
-        <v>0.8450771789924535</v>
+        <v>0.9118213951707242</v>
       </c>
       <c r="O28">
         <v>386.3423182221715</v>
@@ -2761,16 +2761,16 @@
         <v>13.43540078270638</v>
       </c>
       <c r="T28">
-        <v>24.19407320790949</v>
+        <v>15.87613395801317</v>
       </c>
       <c r="U28">
-        <v>3.186107694403521</v>
+        <v>2.764816972653751</v>
       </c>
       <c r="V28">
-        <v>260.6776052022672</v>
+        <v>265.4559785630171</v>
       </c>
       <c r="W28">
-        <v>355.0904310709496</v>
+        <v>331.2235824071335</v>
       </c>
       <c r="X28">
         <v>657.2788497106442</v>
@@ -2779,7 +2779,7 @@
         <v>299.6920799436747</v>
       </c>
       <c r="Z28">
-        <v>1.184850901424178</v>
+        <v>1.105212998853306</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2802,13 +2802,13 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <v>186.5553748881492</v>
+        <v>114.9209697509853</v>
       </c>
       <c r="H29">
-        <v>26.82014541393346</v>
+        <v>28.42973331290669</v>
       </c>
       <c r="I29">
-        <v>159.7352294742157</v>
+        <v>86.4912364380786</v>
       </c>
       <c r="J29">
         <v>0.1</v>
@@ -2823,7 +2823,7 @@
         <v>0.1</v>
       </c>
       <c r="N29">
-        <v>0.6762964813492688</v>
+        <v>0.3661917227849991</v>
       </c>
       <c r="O29">
         <v>244.9324652056029</v>
@@ -2841,16 +2841,16 @@
         <v>28.02002573483123</v>
       </c>
       <c r="T29">
-        <v>6.955792819498693</v>
+        <v>4.042280962896434</v>
       </c>
       <c r="U29">
-        <v>1.939574811617576</v>
+        <v>1.396809127425739</v>
       </c>
       <c r="V29">
-        <v>107.7155509854297</v>
+        <v>46.78032545633094</v>
       </c>
       <c r="W29">
-        <v>302.2020777511696</v>
+        <v>375.4460707873067</v>
       </c>
       <c r="X29">
         <v>461.9373072253853</v>
@@ -2859,7 +2859,7 @@
         <v>225.7461782170983</v>
       </c>
       <c r="Z29">
-        <v>1.338680814611817</v>
+        <v>1.663133674078164</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2882,13 +2882,13 @@
         <v>2</v>
       </c>
       <c r="G30">
-        <v>212.3979231803825</v>
+        <v>188.1897697047054</v>
       </c>
       <c r="H30">
-        <v>29.7039752839706</v>
+        <v>42.79673878192989</v>
       </c>
       <c r="I30">
-        <v>182.6939478964119</v>
+        <v>145.3930309227756</v>
       </c>
       <c r="J30">
         <v>0.1</v>
@@ -2903,7 +2903,7 @@
         <v>0.1</v>
       </c>
       <c r="N30">
-        <v>0.6348694268819131</v>
+        <v>0.5052471156127426</v>
       </c>
       <c r="O30">
         <v>336.2713272834573</v>
@@ -2921,16 +2921,16 @@
         <v>6.932693242443481</v>
       </c>
       <c r="T30">
-        <v>7.150488146783522</v>
+        <v>4.397292295182197</v>
       </c>
       <c r="U30">
-        <v>1.967180626652886</v>
+        <v>1.480988964037043</v>
       </c>
       <c r="V30">
-        <v>124.2608631832088</v>
+        <v>82.01153308996126</v>
       </c>
       <c r="W30">
-        <v>361.9080564715297</v>
+        <v>399.2089734451661</v>
       </c>
       <c r="X30">
         <v>544.6020043679416</v>
@@ -2939,7 +2939,7 @@
         <v>256.8358273231722</v>
       </c>
       <c r="Z30">
-        <v>1.409102695069667</v>
+        <v>1.554335224979528</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2962,13 +2962,13 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>99.8166674639852</v>
+        <v>219.1399614549425</v>
       </c>
       <c r="H31">
-        <v>32.40576103862249</v>
+        <v>33.67241476618467</v>
       </c>
       <c r="I31">
-        <v>67.41090642536271</v>
+        <v>185.4675466887578</v>
       </c>
       <c r="J31">
         <v>0.1</v>
@@ -2983,7 +2983,7 @@
         <v>0.1</v>
       </c>
       <c r="N31">
-        <v>0.2005483745851029</v>
+        <v>0.5517685045208458</v>
       </c>
       <c r="O31">
         <v>361.2764375039665</v>
@@ -3001,16 +3001,16 @@
         <v>14.3685595129433</v>
       </c>
       <c r="T31">
-        <v>3.080213649203291</v>
+        <v>6.507996619090489</v>
       </c>
       <c r="U31">
-        <v>1.124998961204175</v>
+        <v>1.873031669856117</v>
       </c>
       <c r="V31">
-        <v>30.95445891988168</v>
+        <v>122.3980474311632</v>
       </c>
       <c r="W31">
-        <v>463.3083798722285</v>
+        <v>345.2517396088334</v>
       </c>
       <c r="X31">
         <v>530.7192862975912</v>
@@ -3019,7 +3019,7 @@
         <v>194.5863878643664</v>
       </c>
       <c r="Z31">
-        <v>2.380990700105758</v>
+        <v>1.774285156315693</v>
       </c>
     </row>
   </sheetData>

--- a/results/DeterministicUSM/dataset_06/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/DeterministicUSM/dataset_06/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>266.7783251863521</v>
+        <v>280.618522425897</v>
       </c>
       <c r="H2">
-        <v>100.9335800930561</v>
+        <v>53.52071263306946</v>
       </c>
       <c r="I2">
-        <v>165.844745093296</v>
+        <v>227.0978097928275</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>178.222193574647</v>
+        <v>283.1434523880713</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.9305504649387747</v>
+        <v>0.8020591960628188</v>
       </c>
       <c r="O2">
-        <v>255.9446111077716</v>
+        <v>405.1352606187629</v>
       </c>
       <c r="P2">
-        <v>77.72241753312456</v>
+        <v>121.9918082306915</v>
       </c>
       <c r="Q2">
-        <v>1.191817328508189</v>
+        <v>1.200267091356324</v>
       </c>
       <c r="R2">
-        <v>85.59126954512045</v>
+        <v>136.7206995537207</v>
       </c>
       <c r="S2">
-        <v>3.293060345153191</v>
+        <v>3.321003815704047</v>
       </c>
       <c r="T2">
-        <v>2.643107724311323</v>
+        <v>5.243176120426093</v>
       </c>
       <c r="U2">
-        <v>0.9719553931386299</v>
+        <v>1.656927444562755</v>
       </c>
       <c r="V2">
-        <v>67.74180757306034</v>
+        <v>138.4178721785381</v>
       </c>
       <c r="W2">
-        <v>354.1639150595445</v>
+        <v>292.9108503600131</v>
       </c>
       <c r="X2">
         <v>520.0086601528405</v>
       </c>
       <c r="Y2">
-        <v>341.7864665781935</v>
+        <v>236.8652077647693</v>
       </c>
       <c r="Z2">
-        <v>1.036213980633195</v>
+        <v>1.236614077365481</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>165.6333265226139</v>
+        <v>258.4194801588087</v>
       </c>
       <c r="H3">
-        <v>68.90562467259559</v>
+        <v>99.43599880570206</v>
       </c>
       <c r="I3">
-        <v>96.72770185001832</v>
+        <v>158.9834813531066</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>256.871614362497</v>
+        <v>390.5757664124436</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N3">
-        <v>0.3765604934203289</v>
+        <v>0.407049015901365</v>
       </c>
       <c r="O3">
-        <v>283.2195834744782</v>
+        <v>465.727890160208</v>
       </c>
       <c r="P3">
-        <v>26.34796911198112</v>
+        <v>75.15212374776451</v>
       </c>
       <c r="Q3">
-        <v>2.374831311647534</v>
+        <v>1.824087160962924</v>
       </c>
       <c r="R3">
-        <v>194.2996323170422</v>
+        <v>253.4917423650494</v>
       </c>
       <c r="S3">
-        <v>10.74919976833018</v>
+        <v>6.197135449203611</v>
       </c>
       <c r="T3">
-        <v>2.403770770668129</v>
+        <v>2.598852359936167</v>
       </c>
       <c r="U3">
-        <v>0.877038658827099</v>
+        <v>0.9550699475572183</v>
       </c>
       <c r="V3">
-        <v>36.29480520152162</v>
+        <v>64.0151471884451</v>
       </c>
       <c r="W3">
-        <v>444.2025607219188</v>
+        <v>381.9467812188305</v>
       </c>
       <c r="X3">
         <v>540.9302625719371</v>
       </c>
       <c r="Y3">
-        <v>284.05864820944</v>
+        <v>150.3544961594935</v>
       </c>
       <c r="Z3">
-        <v>1.563770592875604</v>
+        <v>2.540308344445303</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,67 +799,67 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>140.0519284974429</v>
+        <v>246.3877800253368</v>
       </c>
       <c r="H4">
-        <v>54.02334900695099</v>
+        <v>100.8116367734642</v>
       </c>
       <c r="I4">
-        <v>86.02857949049194</v>
+        <v>145.5761432518726</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
-        <v>173.3548695603974</v>
+        <v>278.0899217242549</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N4">
-        <v>0.4962570691475112</v>
+        <v>0.5234858651088452</v>
       </c>
       <c r="O4">
-        <v>213.0768555064351</v>
+        <v>362.0365086007783</v>
       </c>
       <c r="P4">
-        <v>39.72198594603772</v>
+        <v>83.94658687652363</v>
       </c>
       <c r="Q4">
-        <v>1.679748088033469</v>
+        <v>1.4615643331545</v>
       </c>
       <c r="R4">
-        <v>106.6319396146482</v>
+        <v>155.3965844554722</v>
       </c>
       <c r="S4">
-        <v>5.364204493599585</v>
+        <v>4.312700754984774</v>
       </c>
       <c r="T4">
-        <v>2.592433291749887</v>
+        <v>2.444041064217612</v>
       </c>
       <c r="U4">
-        <v>0.9525969295464745</v>
+        <v>0.8936528432212287</v>
       </c>
       <c r="V4">
-        <v>34.56610310265284</v>
+        <v>55.48553741948055</v>
       </c>
       <c r="W4">
-        <v>408.6321970300021</v>
+        <v>349.0846332686215</v>
       </c>
       <c r="X4">
         <v>494.660776520494</v>
       </c>
       <c r="Y4">
-        <v>321.3059069600966</v>
+        <v>216.5708547962392</v>
       </c>
       <c r="Z4">
-        <v>1.271785510873756</v>
+        <v>1.611872629846975</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -879,67 +879,67 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>230.4538281507102</v>
+        <v>337.252572712329</v>
       </c>
       <c r="H5">
-        <v>76.43846824851217</v>
+        <v>127.8085749540233</v>
       </c>
       <c r="I5">
-        <v>154.015359902198</v>
+        <v>209.4439977583056</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
-        <v>216.1034168840733</v>
+        <v>298.2091014218247</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0.7126928492057032</v>
+        <v>0.7023393878982973</v>
       </c>
       <c r="O5">
-        <v>277.646064202827</v>
+        <v>393.6655741372268</v>
       </c>
       <c r="P5">
-        <v>61.54264731875374</v>
+        <v>95.456472715402</v>
       </c>
       <c r="Q5">
-        <v>1.506616765373685</v>
+        <v>1.416831391758895</v>
       </c>
       <c r="R5">
-        <v>123.382232648159</v>
+        <v>162.9633743320668</v>
       </c>
       <c r="S5">
-        <v>4.511441679861252</v>
+        <v>4.124032272917921</v>
       </c>
       <c r="T5">
-        <v>3.014893330953108</v>
+        <v>2.638731969538421</v>
       </c>
       <c r="U5">
-        <v>1.103564450101576</v>
+        <v>0.9702984872014527</v>
       </c>
       <c r="V5">
-        <v>69.66058372292196</v>
+        <v>85.43153082904328</v>
       </c>
       <c r="W5">
-        <v>318.1230725774365</v>
+        <v>262.6944347213289</v>
       </c>
       <c r="X5">
         <v>472.1384324796346</v>
       </c>
       <c r="Y5">
-        <v>256.0350155955613</v>
+        <v>173.9293310578099</v>
       </c>
       <c r="Z5">
-        <v>1.242498303747449</v>
+        <v>1.510351549814308</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>182.8898421035437</v>
+        <v>313.9926418392209</v>
       </c>
       <c r="H6">
-        <v>59.94467408653779</v>
+        <v>86.09971397595741</v>
       </c>
       <c r="I6">
-        <v>122.945168017006</v>
+        <v>227.8929278632635</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
-        <v>212.7968464724148</v>
+        <v>339.9955786322601</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.5777584116263845</v>
+        <v>0.6702820336077162</v>
       </c>
       <c r="O6">
-        <v>266.5274308381955</v>
+        <v>453.3854491071605</v>
       </c>
       <c r="P6">
-        <v>53.73058436578081</v>
+        <v>113.3898704749003</v>
       </c>
       <c r="Q6">
-        <v>1.601494787633478</v>
+        <v>1.385910583034526</v>
       </c>
       <c r="R6">
-        <v>126.7475956741159</v>
+        <v>182.8473571321818</v>
       </c>
       <c r="S6">
-        <v>4.960441692272713</v>
+        <v>3.998465182192097</v>
       </c>
       <c r="T6">
-        <v>3.050977336860968</v>
+        <v>3.646848837696494</v>
       </c>
       <c r="U6">
-        <v>1.115461977605</v>
+        <v>1.293863462570632</v>
       </c>
       <c r="V6">
-        <v>56.07916331354933</v>
+        <v>116.4916538119902</v>
       </c>
       <c r="W6">
-        <v>437.7993745595631</v>
+        <v>332.8516147133056</v>
       </c>
       <c r="X6">
         <v>560.7445425765691</v>
       </c>
       <c r="Y6">
-        <v>347.9476961041543</v>
+        <v>220.748963944309</v>
       </c>
       <c r="Z6">
-        <v>1.258233290409581</v>
+        <v>1.507828660963854</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,67 +1039,67 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>260.9027813567229</v>
+        <v>348.0418064349593</v>
       </c>
       <c r="H7">
-        <v>85.18289501110146</v>
+        <v>105.0018390100595</v>
       </c>
       <c r="I7">
-        <v>175.7198863456214</v>
+        <v>243.0399674248998</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
-        <v>238.0007999402722</v>
+        <v>364.5911726315516</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
-        <v>0.7383163686412795</v>
+        <v>0.6666095771619546</v>
       </c>
       <c r="O7">
-        <v>270.1337736281939</v>
+        <v>434.9269556871402</v>
       </c>
       <c r="P7">
-        <v>32.13297368792174</v>
+        <v>70.33578305558862</v>
       </c>
       <c r="Q7">
-        <v>2.129034573580681</v>
+        <v>1.821897424652642</v>
       </c>
       <c r="R7">
-        <v>169.5885880067284</v>
+        <v>236.4465906216477</v>
       </c>
       <c r="S7">
-        <v>8.406746796974247</v>
+        <v>6.183580203314201</v>
       </c>
       <c r="T7">
-        <v>3.062854124912293</v>
+        <v>3.31462581718798</v>
       </c>
       <c r="U7">
-        <v>1.119347201810331</v>
+        <v>1.198344741607155</v>
       </c>
       <c r="V7">
-        <v>80.37065117284178</v>
+        <v>117.2115657881139</v>
       </c>
       <c r="W7">
-        <v>376.4182835581207</v>
+        <v>309.0982024788423</v>
       </c>
       <c r="X7">
         <v>552.1381699037421</v>
       </c>
       <c r="Y7">
-        <v>314.13736996347</v>
+        <v>187.5469972721905</v>
       </c>
       <c r="Z7">
-        <v>1.19826012295797</v>
+        <v>1.6481106441296</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>214.1746179297957</v>
+        <v>349.1795760487904</v>
       </c>
       <c r="H8">
-        <v>60.19188619063544</v>
+        <v>126.4485725946085</v>
       </c>
       <c r="I8">
-        <v>153.9827317391603</v>
+        <v>222.7310034541818</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K8">
-        <v>245.8161636015796</v>
+        <v>379.5097589961153</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N8">
-        <v>0.626414184824463</v>
+        <v>0.5868913728156901</v>
       </c>
       <c r="O8">
-        <v>271.743047679215</v>
+        <v>440.1724488837825</v>
       </c>
       <c r="P8">
-        <v>25.9268840776354</v>
+        <v>60.66268988766716</v>
       </c>
       <c r="Q8">
-        <v>2.349576516520512</v>
+        <v>1.981837734451496</v>
       </c>
       <c r="R8">
-        <v>184.8989656262179</v>
+        <v>259.2861511034073</v>
       </c>
       <c r="S8">
-        <v>10.48113019927533</v>
+        <v>7.256065461305408</v>
       </c>
       <c r="T8">
-        <v>3.558197482821475</v>
+        <v>2.761435490207175</v>
       </c>
       <c r="U8">
-        <v>1.269254091587979</v>
+        <v>1.015750649668783</v>
       </c>
       <c r="V8">
-        <v>77.58393391129829</v>
+        <v>94.29078369151796</v>
       </c>
       <c r="W8">
-        <v>371.9271799965626</v>
+        <v>303.178908281541</v>
       </c>
       <c r="X8">
         <v>525.9099117357229</v>
       </c>
       <c r="Y8">
-        <v>280.0937481341433</v>
+        <v>146.4001527396076</v>
       </c>
       <c r="Z8">
-        <v>1.32786676773106</v>
+        <v>2.07089202168242</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>225.1463013118766</v>
+        <v>276.6370487332597</v>
       </c>
       <c r="H9">
-        <v>83.63149730630421</v>
+        <v>87.64040547774768</v>
       </c>
       <c r="I9">
-        <v>141.5148040055724</v>
+        <v>188.9966432555121</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K9">
-        <v>180.8630823446853</v>
+        <v>273.1787742638789</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N9">
-        <v>0.7824416247417275</v>
+        <v>0.691842343039981</v>
       </c>
       <c r="O9">
-        <v>234.5249700383749</v>
+        <v>421.6452351407307</v>
       </c>
       <c r="P9">
-        <v>53.66188769368962</v>
+        <v>148.4664608768517</v>
       </c>
       <c r="Q9">
-        <v>1.474859041092171</v>
+        <v>1.043805205395567</v>
       </c>
       <c r="R9">
-        <v>101.7193621175744</v>
+        <v>118.2087095739638</v>
       </c>
       <c r="S9">
-        <v>4.370419679924042</v>
+        <v>2.840003275153654</v>
       </c>
       <c r="T9">
-        <v>2.692123285647606</v>
+        <v>3.1565012419243</v>
       </c>
       <c r="U9">
-        <v>0.9903302077797448</v>
+        <v>1.149464212275268</v>
       </c>
       <c r="V9">
-        <v>58.69200590128897</v>
+        <v>88.25713360954778</v>
       </c>
       <c r="W9">
-        <v>396.9977313358595</v>
+        <v>349.5158920859198</v>
       </c>
       <c r="X9">
         <v>538.5125353414319</v>
       </c>
       <c r="Y9">
-        <v>357.6494529967466</v>
+        <v>265.3337610775529</v>
       </c>
       <c r="Z9">
-        <v>1.110019120704403</v>
+        <v>1.317268826501735</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>235.7368820803709</v>
+        <v>326.5271921426258</v>
       </c>
       <c r="H10">
-        <v>78.83438454712939</v>
+        <v>88.30227820163242</v>
       </c>
       <c r="I10">
-        <v>156.9024975332415</v>
+        <v>238.2249139409934</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
-        <v>206.5071356307721</v>
+        <v>307.8935672968515</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
-        <v>0.7597921352886223</v>
+        <v>0.7737248817261322</v>
       </c>
       <c r="O10">
-        <v>246.3321919146987</v>
+        <v>377.1752228115829</v>
       </c>
       <c r="P10">
-        <v>39.82505628392656</v>
+        <v>69.28165551473141</v>
       </c>
       <c r="Q10">
-        <v>1.822184729558462</v>
+        <v>1.694529701497374</v>
       </c>
       <c r="R10">
-        <v>133.9385262163949</v>
+        <v>190.4937442582298</v>
       </c>
       <c r="S10">
-        <v>6.185357031475651</v>
+        <v>5.444085018023044</v>
       </c>
       <c r="T10">
-        <v>2.990279982961506</v>
+        <v>3.69783428913377</v>
       </c>
       <c r="U10">
-        <v>1.095367022805121</v>
+        <v>1.307747321018159</v>
       </c>
       <c r="V10">
-        <v>70.54991243717835</v>
+        <v>122.7478461830084</v>
       </c>
       <c r="W10">
-        <v>376.6528218445923</v>
+        <v>295.3304054368404</v>
       </c>
       <c r="X10">
         <v>533.5553193778337</v>
       </c>
       <c r="Y10">
-        <v>327.0481837470616</v>
+        <v>225.6617520809822</v>
       </c>
       <c r="Z10">
-        <v>1.151673791700047</v>
+        <v>1.308730445959032</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>246.4076049161262</v>
+        <v>368.5543565863971</v>
       </c>
       <c r="H11">
-        <v>90.12724390170976</v>
+        <v>106.7511188080306</v>
       </c>
       <c r="I11">
-        <v>156.2803610144165</v>
+        <v>261.8032377783665</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K11">
-        <v>215.8225323418171</v>
+        <v>335.6430235840572</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N11">
-        <v>0.7241151297719995</v>
+        <v>0.7800050034789461</v>
       </c>
       <c r="O11">
-        <v>250.740036324805</v>
+        <v>417.8234100833093</v>
       </c>
       <c r="P11">
-        <v>34.91750398298787</v>
+        <v>82.18038649925215</v>
       </c>
       <c r="Q11">
-        <v>1.97142844029196</v>
+        <v>1.626142212820327</v>
       </c>
       <c r="R11">
-        <v>146.9851719257471</v>
+        <v>202.0060280317336</v>
       </c>
       <c r="S11">
-        <v>7.180926690721303</v>
+        <v>5.084222986553021</v>
       </c>
       <c r="T11">
-        <v>2.733996894267082</v>
+        <v>3.452463643488032</v>
       </c>
       <c r="U11">
-        <v>1.005764602334427</v>
+        <v>1.239088075757242</v>
       </c>
       <c r="V11">
-        <v>65.63356939211545</v>
+        <v>129.5291993895912</v>
       </c>
       <c r="W11">
-        <v>393.4457845030822</v>
+        <v>287.9229077391322</v>
       </c>
       <c r="X11">
         <v>549.7261455174987</v>
       </c>
       <c r="Y11">
-        <v>333.9036131756816</v>
+        <v>214.0831219334415</v>
       </c>
       <c r="Z11">
-        <v>1.178321434623329</v>
+        <v>1.34491175735305</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,67 +1439,67 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>206.8900434056706</v>
+        <v>260.5057474874648</v>
       </c>
       <c r="H12">
-        <v>73.46952453191935</v>
+        <v>88.37040727226672</v>
       </c>
       <c r="I12">
-        <v>133.4205188737513</v>
+        <v>172.135340215198</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>176.5326939193888</v>
+        <v>309.1793925987661</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N12">
-        <v>0.7557836223508598</v>
+        <v>0.5567490729842549</v>
       </c>
       <c r="O12">
-        <v>220.7449590799793</v>
+        <v>398.5136672084221</v>
       </c>
       <c r="P12">
-        <v>44.21226516059056</v>
+        <v>89.33427460965615</v>
       </c>
       <c r="Q12">
-        <v>1.608005760887722</v>
+        <v>1.495356565813092</v>
       </c>
       <c r="R12">
-        <v>105.4391168392636</v>
+        <v>175.5927985090668</v>
       </c>
       <c r="S12">
-        <v>4.99284436746626</v>
+        <v>4.460926883323534</v>
       </c>
       <c r="T12">
-        <v>2.815998126077239</v>
+        <v>2.947884427926805</v>
       </c>
       <c r="U12">
-        <v>1.035316772840049</v>
+        <v>1.081087770005967</v>
       </c>
       <c r="V12">
-        <v>57.35628783327175</v>
+        <v>76.59917368270415</v>
       </c>
       <c r="W12">
-        <v>377.6023400236029</v>
+        <v>338.8875186821561</v>
       </c>
       <c r="X12">
         <v>511.0228588973541</v>
       </c>
       <c r="Y12">
-        <v>334.4901649779654</v>
+        <v>201.8434662985881</v>
       </c>
       <c r="Z12">
-        <v>1.128889215766561</v>
+        <v>1.678962043690025</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>201.8964154828822</v>
+        <v>432.8934529676524</v>
       </c>
       <c r="H13">
-        <v>58.22950799663031</v>
+        <v>93.43070348550117</v>
       </c>
       <c r="I13">
-        <v>143.6669074862519</v>
+        <v>339.4627494821512</v>
       </c>
       <c r="J13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
-        <v>262.8143150909896</v>
+        <v>394.5425338673454</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N13">
-        <v>0.5466479534667379</v>
+        <v>0.8603958264137035</v>
       </c>
       <c r="O13">
-        <v>334.6860897915695</v>
+        <v>463.7176876463348</v>
       </c>
       <c r="P13">
-        <v>71.87177470057996</v>
+        <v>69.17515377898948</v>
       </c>
       <c r="Q13">
-        <v>1.538309422745678</v>
+        <v>1.902634186546451</v>
       </c>
       <c r="R13">
-        <v>152.2532868396329</v>
+        <v>262.9275214278321</v>
       </c>
       <c r="S13">
-        <v>4.65671108283999</v>
+        <v>6.703529552357561</v>
       </c>
       <c r="T13">
-        <v>3.467252642673294</v>
+        <v>4.633310430278735</v>
       </c>
       <c r="U13">
-        <v>1.243362534735369</v>
+        <v>1.53327160835101</v>
       </c>
       <c r="V13">
-        <v>71.26651882716813</v>
+        <v>196.2081044795705</v>
       </c>
       <c r="W13">
-        <v>429.1636588345386</v>
+        <v>233.3678168386393</v>
       </c>
       <c r="X13">
         <v>572.8305663207905</v>
       </c>
       <c r="Y13">
-        <v>310.0162512298009</v>
+        <v>178.2880324534451</v>
       </c>
       <c r="Z13">
-        <v>1.384326328481468</v>
+        <v>1.308937081346594</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,67 +1599,67 @@
         <v>20</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>211.74186356692</v>
+        <v>277.2409501069653</v>
       </c>
       <c r="H14">
-        <v>86.38032297122456</v>
+        <v>80.71678194500156</v>
       </c>
       <c r="I14">
-        <v>125.3615405956954</v>
+        <v>196.5241681619638</v>
       </c>
       <c r="J14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
-        <v>195.6186536658408</v>
+        <v>310.4632796957637</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N14">
-        <v>0.6408465565346351</v>
+        <v>0.6330029379144169</v>
       </c>
       <c r="O14">
-        <v>246.6460399241791</v>
+        <v>413.7946032633157</v>
       </c>
       <c r="P14">
-        <v>51.02738625833838</v>
+        <v>103.3313235675519</v>
       </c>
       <c r="Q14">
-        <v>1.575591798047751</v>
+        <v>1.387429164054438</v>
       </c>
       <c r="R14">
-        <v>115.2203224013883</v>
+        <v>167.0983878177966</v>
       </c>
       <c r="S14">
-        <v>4.833601287659031</v>
+        <v>4.004541788268117</v>
       </c>
       <c r="T14">
-        <v>2.45127427501581</v>
+        <v>3.434737404371132</v>
       </c>
       <c r="U14">
-        <v>0.896608001596491</v>
+        <v>1.23394047569856</v>
       </c>
       <c r="V14">
-        <v>47.91225183920631</v>
+        <v>96.9244638518916</v>
       </c>
       <c r="W14">
-        <v>379.0124121597306</v>
+        <v>307.8497845934622</v>
       </c>
       <c r="X14">
         <v>504.373952755426</v>
       </c>
       <c r="Y14">
-        <v>308.7552990895852</v>
+        <v>193.9106730596623</v>
       </c>
       <c r="Z14">
-        <v>1.227549497214492</v>
+        <v>1.587585560588216</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>20</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>187.7265655466325</v>
+        <v>371.6261595198314</v>
       </c>
       <c r="H15">
-        <v>68.73444371845704</v>
+        <v>154.330100572477</v>
       </c>
       <c r="I15">
-        <v>118.9921218281754</v>
+        <v>217.2960589473544</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K15">
-        <v>226.3540891488511</v>
+        <v>322.0703082085795</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N15">
-        <v>0.5256901798223133</v>
+        <v>0.674685164726917</v>
       </c>
       <c r="O15">
-        <v>270.58170258979</v>
+        <v>430.7036338611785</v>
       </c>
       <c r="P15">
-        <v>44.22761344093895</v>
+        <v>108.633325652599</v>
       </c>
       <c r="Q15">
-        <v>1.811224763027995</v>
+        <v>1.377442002657489</v>
       </c>
       <c r="R15">
-        <v>146.2479404749926</v>
+        <v>172.4342025663203</v>
       </c>
       <c r="S15">
-        <v>6.117935867173157</v>
+        <v>3.964746833200481</v>
       </c>
       <c r="T15">
-        <v>2.731186220340689</v>
+        <v>2.40799531744818</v>
       </c>
       <c r="U15">
-        <v>1.004736027768762</v>
+        <v>0.8787945828633634</v>
       </c>
       <c r="V15">
-        <v>49.93214987559735</v>
+        <v>81.6716025915035</v>
       </c>
       <c r="W15">
-        <v>410.9331608548327</v>
+        <v>312.6292237356538</v>
       </c>
       <c r="X15">
         <v>529.9252826830082</v>
       </c>
       <c r="Y15">
-        <v>303.5711935341571</v>
+        <v>207.8549744744287</v>
       </c>
       <c r="Z15">
-        <v>1.353663224994356</v>
+        <v>1.504073811686018</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>234.7896889177444</v>
+        <v>298.3273928460651</v>
       </c>
       <c r="H16">
-        <v>105.7231500576114</v>
+        <v>87.95231005700883</v>
       </c>
       <c r="I16">
-        <v>129.066538860133</v>
+        <v>210.3750827890563</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K16">
-        <v>227.9214404371258</v>
+        <v>325.8446150365355</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N16">
-        <v>0.5662764267047408</v>
+        <v>0.6456300736026214</v>
       </c>
       <c r="O16">
-        <v>258.0476107321789</v>
+        <v>432.0298902355943</v>
       </c>
       <c r="P16">
-        <v>30.12617029505304</v>
+        <v>106.1852751990588</v>
       </c>
       <c r="Q16">
-        <v>2.147749866593428</v>
+        <v>1.40330932862554</v>
       </c>
       <c r="R16">
-        <v>163.2179622049548</v>
+        <v>176.8338277870261</v>
       </c>
       <c r="S16">
-        <v>8.565563037215931</v>
+        <v>4.068642186270131</v>
       </c>
       <c r="T16">
-        <v>2.220797325749385</v>
+        <v>3.391922197980878</v>
       </c>
       <c r="U16">
-        <v>0.7978662871461693</v>
+        <v>1.221396780750587</v>
       </c>
       <c r="V16">
-        <v>44.71360165826928</v>
+        <v>102.9504144258482</v>
       </c>
       <c r="W16">
-        <v>381.5807457880549</v>
+        <v>300.2722018591317</v>
       </c>
       <c r="X16">
         <v>510.6472846481879</v>
       </c>
       <c r="Y16">
-        <v>282.7258442110621</v>
+        <v>184.8026696116524</v>
       </c>
       <c r="Z16">
-        <v>1.349649328496461</v>
+        <v>1.624826105002319</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>20</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>238.0465148132235</v>
+        <v>326.5020321843511</v>
       </c>
       <c r="H17">
-        <v>79.88760570304137</v>
+        <v>105.6505133683524</v>
       </c>
       <c r="I17">
-        <v>158.1589091101821</v>
+        <v>220.8515188159987</v>
       </c>
       <c r="J17">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K17">
-        <v>251.9685308470517</v>
+        <v>386.3337901465525</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N17">
-        <v>0.6276931034938911</v>
+        <v>0.5716598559298178</v>
       </c>
       <c r="O17">
-        <v>279.6506718572644</v>
+        <v>452.8409278940583</v>
       </c>
       <c r="P17">
-        <v>27.68214101021263</v>
+        <v>66.50713774750568</v>
       </c>
       <c r="Q17">
-        <v>2.312753747364991</v>
+        <v>1.918231634811966</v>
       </c>
       <c r="R17">
-        <v>187.9465554905964</v>
+        <v>258.7576945784901</v>
       </c>
       <c r="S17">
-        <v>10.10220530825612</v>
+        <v>6.808907182463162</v>
       </c>
       <c r="T17">
-        <v>2.979767796497635</v>
+        <v>3.090397024820844</v>
       </c>
       <c r="U17">
-        <v>1.091845376842965</v>
+        <v>1.128299569652944</v>
       </c>
       <c r="V17">
-        <v>70.93399615626271</v>
+        <v>101.6460900488741</v>
       </c>
       <c r="W17">
-        <v>350.4603366003032</v>
+        <v>287.7677268944866</v>
       </c>
       <c r="X17">
         <v>508.6192457104853</v>
       </c>
       <c r="Y17">
-        <v>256.6507148634336</v>
+        <v>122.2854555639328</v>
       </c>
       <c r="Z17">
-        <v>1.365514749439863</v>
+        <v>2.353245736113213</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>20</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>202.0744363694273</v>
+        <v>363.6143872980276</v>
       </c>
       <c r="H18">
-        <v>52.27295255707635</v>
+        <v>93.85423243896426</v>
       </c>
       <c r="I18">
-        <v>149.801483812351</v>
+        <v>269.7601548590634</v>
       </c>
       <c r="J18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K18">
-        <v>202.3735506599434</v>
+        <v>318.1888055733976</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N18">
-        <v>0.7402226393906018</v>
+        <v>0.8477990115740792</v>
       </c>
       <c r="O18">
-        <v>256.5739943439725</v>
+        <v>401.7842776144531</v>
       </c>
       <c r="P18">
-        <v>54.20044368402914</v>
+        <v>83.59547204105544</v>
       </c>
       <c r="Q18">
-        <v>1.554728005519601</v>
+        <v>1.569925965300331</v>
       </c>
       <c r="R18">
-        <v>118.1066029527953</v>
+        <v>186.9501034346069</v>
       </c>
       <c r="S18">
-        <v>4.733798782897701</v>
+        <v>4.806292348192359</v>
       </c>
       <c r="T18">
-        <v>3.865755165614265</v>
+        <v>3.874246028643355</v>
       </c>
       <c r="U18">
-        <v>1.352157048624018</v>
+        <v>1.354351070620151</v>
       </c>
       <c r="V18">
-        <v>79.12024255991132</v>
+        <v>142.6485746731196</v>
       </c>
       <c r="W18">
-        <v>362.9099014772277</v>
+        <v>242.9512304305152</v>
       </c>
       <c r="X18">
         <v>512.7113852895786</v>
       </c>
       <c r="Y18">
-        <v>310.3378346296353</v>
+        <v>194.522579716181</v>
       </c>
       <c r="Z18">
-        <v>1.16940269919178</v>
+        <v>1.248961589883263</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>20</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>276.6680449978445</v>
+        <v>379.9274771294012</v>
       </c>
       <c r="H19">
-        <v>60.0547280441868</v>
+        <v>116.7335517338863</v>
       </c>
       <c r="I19">
-        <v>216.6133169536577</v>
+        <v>263.193925395515</v>
       </c>
       <c r="J19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K19">
-        <v>240.6178879814562</v>
+        <v>371.6573537295689</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N19">
-        <v>0.9002377951648864</v>
+        <v>0.7081628353492077</v>
       </c>
       <c r="O19">
-        <v>311.6478797008155</v>
+        <v>460.8545291820707</v>
       </c>
       <c r="P19">
-        <v>71.02999171935932</v>
+        <v>89.19717545250171</v>
       </c>
       <c r="Q19">
-        <v>1.478771753338678</v>
+        <v>1.642233064525224</v>
       </c>
       <c r="R19">
-        <v>135.5807425869874</v>
+        <v>225.174802939213</v>
       </c>
       <c r="S19">
-        <v>4.387553372273242</v>
+        <v>5.166694201292056</v>
       </c>
       <c r="T19">
-        <v>4.606931943714389</v>
+        <v>3.254655336757933</v>
       </c>
       <c r="U19">
-        <v>1.527562113479655</v>
+        <v>1.180086382729322</v>
       </c>
       <c r="V19">
-        <v>124.8759896580338</v>
+        <v>125.4382505867269</v>
       </c>
       <c r="W19">
-        <v>342.9070185533147</v>
+        <v>296.3264101114574</v>
       </c>
       <c r="X19">
         <v>559.5203355069724</v>
       </c>
       <c r="Y19">
-        <v>318.9024475255162</v>
+        <v>187.8629817774035</v>
       </c>
       <c r="Z19">
-        <v>1.075272457812911</v>
+        <v>1.57735391671027</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,67 +2079,67 @@
         <v>20</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>278.0920084438587</v>
+        <v>301.8637028632045</v>
       </c>
       <c r="H20">
-        <v>92.70602459639815</v>
+        <v>80.81266201898731</v>
       </c>
       <c r="I20">
-        <v>185.3859838474605</v>
+        <v>221.0510408442172</v>
       </c>
       <c r="J20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K20">
-        <v>249.7904174644402</v>
+        <v>366.8793632898735</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N20">
-        <v>0.7421661156151107</v>
+        <v>0.602516965963996</v>
       </c>
       <c r="O20">
-        <v>287.033361355337</v>
+        <v>436.7025885585026</v>
       </c>
       <c r="P20">
-        <v>37.24294389089678</v>
+        <v>69.82322526862917</v>
       </c>
       <c r="Q20">
-        <v>2.042135949525802</v>
+        <v>1.833285693357223</v>
       </c>
       <c r="R20">
-        <v>173.7352628786676</v>
+        <v>238.873443340837</v>
       </c>
       <c r="S20">
-        <v>7.707053507805436</v>
+        <v>6.254402985230022</v>
       </c>
       <c r="T20">
-        <v>2.999718838711408</v>
+        <v>3.735351556570185</v>
       </c>
       <c r="U20">
-        <v>1.098518563846545</v>
+        <v>1.317841939073698</v>
       </c>
       <c r="V20">
-        <v>83.54669484790274</v>
+        <v>114.5527256274076</v>
       </c>
       <c r="W20">
-        <v>343.5956846421348</v>
+        <v>307.9306276453781</v>
       </c>
       <c r="X20">
         <v>528.9816684895953</v>
       </c>
       <c r="Y20">
-        <v>279.1912510251551</v>
+        <v>162.1023051997219</v>
       </c>
       <c r="Z20">
-        <v>1.230682134130259</v>
+        <v>1.899606716054933</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,67 +2159,67 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>217.0689966395415</v>
+        <v>330.5841751848104</v>
       </c>
       <c r="H21">
-        <v>61.46043180421134</v>
+        <v>134.4956494549195</v>
       </c>
       <c r="I21">
-        <v>155.6085648353302</v>
+        <v>196.0885257298908</v>
       </c>
       <c r="J21">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K21">
-        <v>223.2610320719426</v>
+        <v>311.0641159669187</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N21">
-        <v>0.6969804062591075</v>
+        <v>0.6303797695223212</v>
       </c>
       <c r="O21">
-        <v>300.9254421366175</v>
+        <v>414.2937047915112</v>
       </c>
       <c r="P21">
-        <v>77.66441006467498</v>
+        <v>103.2295888245924</v>
       </c>
       <c r="Q21">
-        <v>1.354465424009009</v>
+        <v>1.389619628791419</v>
       </c>
       <c r="R21">
-        <v>118.0672739632829</v>
+        <v>167.6142530641979</v>
       </c>
       <c r="S21">
-        <v>3.874689087138138</v>
+        <v>4.013323210029236</v>
       </c>
       <c r="T21">
-        <v>3.531849521185233</v>
+        <v>2.457954413578382</v>
       </c>
       <c r="U21">
-        <v>1.261821677413177</v>
+        <v>0.899329464827997</v>
       </c>
       <c r="V21">
-        <v>78.05645968160201</v>
+        <v>75.13262528390413</v>
       </c>
       <c r="W21">
-        <v>344.6200210081431</v>
+        <v>304.1400601135825</v>
       </c>
       <c r="X21">
         <v>500.2285858434733</v>
       </c>
       <c r="Y21">
-        <v>276.9675537715307</v>
+        <v>189.1644698765546</v>
       </c>
       <c r="Z21">
-        <v>1.244261345111993</v>
+        <v>1.607807535485173</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2239,67 +2239,67 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>200.5125423949626</v>
+        <v>314.7451004098558</v>
       </c>
       <c r="H22">
-        <v>29.05429525990111</v>
+        <v>57.46640330332205</v>
       </c>
       <c r="I22">
-        <v>171.4582471350615</v>
+        <v>257.2786971065337</v>
       </c>
       <c r="J22">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K22">
-        <v>339.5191272719971</v>
+        <v>503.3898522787755</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N22">
-        <v>0.5050032041278842</v>
+        <v>0.5110923391519893</v>
       </c>
       <c r="O22">
-        <v>350.7799503801288</v>
+        <v>554.9582593288168</v>
       </c>
       <c r="P22">
-        <v>11.26082310813159</v>
+        <v>51.56840705004143</v>
       </c>
       <c r="Q22">
-        <v>3.438829384645004</v>
+        <v>2.3759836839978</v>
       </c>
       <c r="R22">
-        <v>300.7950778724647</v>
+        <v>380.8641585181198</v>
       </c>
       <c r="S22">
-        <v>31.15047159623935</v>
+        <v>10.76159398893767</v>
       </c>
       <c r="T22">
-        <v>6.901304629876782</v>
+        <v>5.477028007974545</v>
       </c>
       <c r="U22">
-        <v>1.931710470524186</v>
+        <v>1.700562619532264</v>
       </c>
       <c r="V22">
-        <v>115.3337607678093</v>
+        <v>159.5534797699388</v>
       </c>
       <c r="W22">
-        <v>383.5000121937555</v>
+        <v>297.6795622222833</v>
       </c>
       <c r="X22">
         <v>554.958259328817</v>
       </c>
       <c r="Y22">
-        <v>215.4391320568199</v>
+        <v>51.56840705004151</v>
       </c>
       <c r="Z22">
-        <v>1.780085207977032</v>
+        <v>5.772518083279512</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>20</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>122.9299487027485</v>
+        <v>380.9941992151143</v>
       </c>
       <c r="H23">
-        <v>19.91312385371694</v>
+        <v>23.55731589775197</v>
       </c>
       <c r="I23">
-        <v>103.0168248490315</v>
+        <v>357.4368833173623</v>
       </c>
       <c r="J23">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K23">
-        <v>275.2638326703983</v>
+        <v>417.690831077323</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N23">
-        <v>0.3742475858511501</v>
+        <v>0.8557451031315398</v>
       </c>
       <c r="O23">
-        <v>306.2078168977224</v>
+        <v>446.9723363713912</v>
       </c>
       <c r="P23">
-        <v>30.94398422732404</v>
+        <v>29.2815052940683</v>
       </c>
       <c r="Q23">
-        <v>2.292085402075702</v>
+        <v>2.72554060729796</v>
       </c>
       <c r="R23">
-        <v>204.3375781408882</v>
+        <v>337.8828993555295</v>
       </c>
       <c r="S23">
-        <v>9.895552384212243</v>
+        <v>15.26466388536168</v>
       </c>
       <c r="T23">
-        <v>6.173313117811128</v>
+        <v>16.17307340398113</v>
       </c>
       <c r="U23">
-        <v>1.820235665891937</v>
+        <v>2.783347723801745</v>
       </c>
       <c r="V23">
-        <v>66.77024659117245</v>
+        <v>291.8686817344757</v>
       </c>
       <c r="W23">
-        <v>389.5241262333782</v>
+        <v>135.1040677650474</v>
       </c>
       <c r="X23">
         <v>492.5409510824098</v>
       </c>
       <c r="Y23">
-        <v>217.2771184120115</v>
+        <v>74.85012000508681</v>
       </c>
       <c r="Z23">
-        <v>1.792752633504388</v>
+        <v>1.804994671429595</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>20</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>200.9649487910165</v>
+        <v>328.0230709951002</v>
       </c>
       <c r="H24">
-        <v>5.294579588166847</v>
+        <v>55.71196288143033</v>
       </c>
       <c r="I24">
-        <v>195.6703692028497</v>
+        <v>272.3111081136698</v>
       </c>
       <c r="J24">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K24">
-        <v>341.2929980713936</v>
+        <v>502.4029904945357</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N24">
-        <v>0.5733207839263031</v>
+        <v>0.5420172914289839</v>
       </c>
       <c r="O24">
-        <v>358.5152654778143</v>
+        <v>525.1613568098834</v>
       </c>
       <c r="P24">
-        <v>17.22226740642064</v>
+        <v>22.75836631534771</v>
       </c>
       <c r="Q24">
-        <v>3.035768077482977</v>
+        <v>3.138772733756333</v>
       </c>
       <c r="R24">
-        <v>289.0101884571063</v>
+        <v>430.9696508390837</v>
       </c>
       <c r="S24">
-        <v>20.81696079949125</v>
+        <v>23.07552965503182</v>
       </c>
       <c r="T24">
-        <v>37.95673394733065</v>
+        <v>5.887839056994263</v>
       </c>
       <c r="U24">
-        <v>3.636446930717968</v>
+        <v>1.772889046982725</v>
       </c>
       <c r="V24">
-        <v>176.4169115100183</v>
+        <v>173.5399793352739</v>
       </c>
       <c r="W24">
-        <v>385.1801807997542</v>
+        <v>308.539441888934</v>
       </c>
       <c r="X24">
         <v>580.8505500026039</v>
       </c>
       <c r="Y24">
-        <v>239.5575519312102</v>
+        <v>78.44755950806814</v>
       </c>
       <c r="Z24">
-        <v>1.607881603792478</v>
+        <v>3.933066163227188</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>74.5989924978861</v>
+        <v>387.6028235462866</v>
       </c>
       <c r="H25">
-        <v>18.39888291039464</v>
+        <v>61.53593235265586</v>
       </c>
       <c r="I25">
-        <v>56.20010958749145</v>
+        <v>326.0668911936307</v>
       </c>
       <c r="J25">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K25">
-        <v>279.6253618724332</v>
+        <v>441.8726311919104</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N25">
-        <v>0.2009835917999823</v>
+        <v>0.7379205412973769</v>
       </c>
       <c r="O25">
-        <v>316.0010099754927</v>
+        <v>515.6290773151302</v>
       </c>
       <c r="P25">
-        <v>36.37564810305933</v>
+        <v>73.75644612321969</v>
       </c>
       <c r="Q25">
-        <v>2.161845867107615</v>
+        <v>1.944619268116998</v>
       </c>
       <c r="R25">
-        <v>200.9868173574736</v>
+        <v>298.4444249128642</v>
       </c>
       <c r="S25">
-        <v>8.687158207606362</v>
+        <v>6.990969663230588</v>
       </c>
       <c r="T25">
-        <v>4.054539227256053</v>
+        <v>6.298804758900478</v>
       </c>
       <c r="U25">
-        <v>1.399837050347917</v>
+        <v>1.84035989458877</v>
       </c>
       <c r="V25">
-        <v>30.44467160450793</v>
+        <v>212.8186292156753</v>
       </c>
       <c r="W25">
-        <v>486.3408863811404</v>
+        <v>216.4741047750011</v>
       </c>
       <c r="X25">
         <v>542.5409959686318</v>
       </c>
       <c r="Y25">
-        <v>262.9156340961986</v>
+        <v>100.6683647767214</v>
       </c>
       <c r="Z25">
-        <v>1.84979827484581</v>
+        <v>2.150368740518755</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>220.5508206708802</v>
+        <v>308.2047805984261</v>
       </c>
       <c r="H26">
-        <v>43.59136400547621</v>
+        <v>68.87287937780795</v>
       </c>
       <c r="I26">
-        <v>176.959456665404</v>
+        <v>239.3319012206182</v>
       </c>
       <c r="J26">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K26">
-        <v>292.8622521863727</v>
+        <v>463.9506792759894</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N26">
-        <v>0.6042412613585649</v>
+        <v>0.5158563440279981</v>
       </c>
       <c r="O26">
-        <v>323.8552710849078</v>
+        <v>523.2518201733564</v>
       </c>
       <c r="P26">
-        <v>30.99301889853508</v>
+        <v>59.30114089736703</v>
       </c>
       <c r="Q26">
-        <v>2.346534739509293</v>
+        <v>2.17743429467766</v>
       </c>
       <c r="R26">
-        <v>220.1360566586921</v>
+        <v>334.8263413725504</v>
       </c>
       <c r="S26">
-        <v>10.44929737710111</v>
+        <v>8.823638335710143</v>
       </c>
       <c r="T26">
-        <v>5.059507214391669</v>
+        <v>4.474980331630147</v>
       </c>
       <c r="U26">
-        <v>1.621269090096666</v>
+        <v>1.498501956550712</v>
       </c>
       <c r="V26">
-        <v>106.286125608173</v>
+        <v>136.1257567196918</v>
       </c>
       <c r="W26">
-        <v>379.1457593245941</v>
+        <v>316.7733147693799</v>
       </c>
       <c r="X26">
         <v>556.1052159899981</v>
       </c>
       <c r="Y26">
-        <v>263.2429638036254</v>
+        <v>92.15453671400871</v>
       </c>
       <c r="Z26">
-        <v>1.440288294305295</v>
+        <v>3.437414218167581</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>20</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>238.2329464789787</v>
+        <v>396.658454173968</v>
       </c>
       <c r="H27">
-        <v>21.10822288538895</v>
+        <v>48.44219469464852</v>
       </c>
       <c r="I27">
-        <v>217.1247235935897</v>
+        <v>348.2162594793194</v>
       </c>
       <c r="J27">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K27">
-        <v>320.3097657690982</v>
+        <v>418.7405754382737</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N27">
-        <v>0.6778585819019595</v>
+        <v>0.8315799325509831</v>
       </c>
       <c r="O27">
-        <v>327.7493575140708</v>
+        <v>457.5724425271203</v>
       </c>
       <c r="P27">
-        <v>7.439591744972518</v>
+        <v>38.83186708884663</v>
       </c>
       <c r="Q27">
-        <v>3.78543318799734</v>
+        <v>2.46669399024595</v>
       </c>
       <c r="R27">
-        <v>292.1476882725283</v>
+        <v>322.9542422601862</v>
       </c>
       <c r="S27">
-        <v>44.05475041497476</v>
+        <v>11.78342626380036</v>
       </c>
       <c r="T27">
-        <v>11.2862625988227</v>
+        <v>8.188284132753948</v>
       </c>
       <c r="U27">
-        <v>2.423586286937319</v>
+        <v>2.102704368314944</v>
       </c>
       <c r="V27">
-        <v>165.9671240669446</v>
+        <v>246.356645084119</v>
       </c>
       <c r="W27">
-        <v>316.5065999288847</v>
+        <v>185.415064043155</v>
       </c>
       <c r="X27">
         <v>533.6313235224744</v>
       </c>
       <c r="Y27">
-        <v>213.3215577533762</v>
+        <v>114.8907480842008</v>
       </c>
       <c r="Z27">
-        <v>1.483706584848785</v>
+        <v>1.613838077782108</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>20</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>347.9732782748947</v>
+        <v>228.7645305742183</v>
       </c>
       <c r="H28">
-        <v>21.91801097138399</v>
+        <v>33.6932959680651</v>
       </c>
       <c r="I28">
-        <v>326.0552673035107</v>
+        <v>195.0712346061532</v>
       </c>
       <c r="J28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K28">
-        <v>357.5867697669695</v>
+        <v>560.148534548794</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N28">
-        <v>0.9118213951707242</v>
+        <v>0.3482491206788307</v>
       </c>
       <c r="O28">
-        <v>386.3423182221715</v>
+        <v>609.3857924449944</v>
       </c>
       <c r="P28">
-        <v>28.75554845520194</v>
+        <v>49.2372578962004</v>
       </c>
       <c r="Q28">
-        <v>2.597893072862287</v>
+        <v>2.515800941050484</v>
       </c>
       <c r="R28">
-        <v>282.8829296288445</v>
+        <v>436.2773947987877</v>
       </c>
       <c r="S28">
-        <v>13.43540078270638</v>
+        <v>12.37651767142825</v>
       </c>
       <c r="T28">
-        <v>15.87613395801317</v>
+        <v>6.789615678770161</v>
       </c>
       <c r="U28">
-        <v>2.764816972653751</v>
+        <v>1.915394338903927</v>
       </c>
       <c r="V28">
-        <v>265.4559785630171</v>
+        <v>130.5352862499068</v>
       </c>
       <c r="W28">
-        <v>331.2235824071335</v>
+        <v>462.207615104491</v>
       </c>
       <c r="X28">
         <v>657.2788497106442</v>
       </c>
       <c r="Y28">
-        <v>299.6920799436747</v>
+        <v>97.13031516185015</v>
       </c>
       <c r="Z28">
-        <v>1.105212998853306</v>
+        <v>4.758633947952351</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>20</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>114.9209697509853</v>
+        <v>252.3012905905179</v>
       </c>
       <c r="H29">
-        <v>28.42973331290669</v>
+        <v>57.25946576382392</v>
       </c>
       <c r="I29">
-        <v>86.4912364380786</v>
+        <v>195.041824826694</v>
       </c>
       <c r="J29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K29">
-        <v>236.191129008287</v>
+        <v>355.5023040968084</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N29">
-        <v>0.3661917227849991</v>
+        <v>0.5486373015843555</v>
       </c>
       <c r="O29">
-        <v>244.9324652056029</v>
+        <v>381.9921278821134</v>
       </c>
       <c r="P29">
-        <v>8.741336197315889</v>
+        <v>26.48982378530496</v>
       </c>
       <c r="Q29">
-        <v>3.332919459353522</v>
+        <v>2.668639349615304</v>
       </c>
       <c r="R29">
-        <v>207.0569594955016</v>
+        <v>284.8105179789682</v>
       </c>
       <c r="S29">
-        <v>28.02002573483123</v>
+        <v>14.42033480396426</v>
       </c>
       <c r="T29">
-        <v>4.042280962896434</v>
+        <v>4.406280904386639</v>
       </c>
       <c r="U29">
-        <v>1.396809127425739</v>
+        <v>1.483031001315352</v>
       </c>
       <c r="V29">
-        <v>46.78032545633094</v>
+        <v>110.124261980188</v>
       </c>
       <c r="W29">
-        <v>375.4460707873067</v>
+        <v>266.8954823986913</v>
       </c>
       <c r="X29">
         <v>461.9373072253853</v>
       </c>
       <c r="Y29">
-        <v>225.7461782170983</v>
+        <v>106.4350031285769</v>
       </c>
       <c r="Z29">
-        <v>1.663133674078164</v>
+        <v>2.507591248682287</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>20</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>188.1897697047054</v>
+        <v>391.5684233859368</v>
       </c>
       <c r="H30">
-        <v>42.79673878192989</v>
+        <v>76.71638923120015</v>
       </c>
       <c r="I30">
-        <v>145.3930309227756</v>
+        <v>314.8520341547367</v>
       </c>
       <c r="J30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K30">
-        <v>287.7661770447694</v>
+        <v>397.4733243522522</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N30">
-        <v>0.5052471156127426</v>
+        <v>0.7921337480140072</v>
       </c>
       <c r="O30">
-        <v>336.2713272834573</v>
+        <v>473.243691044758</v>
       </c>
       <c r="P30">
-        <v>48.50515023868789</v>
+        <v>75.77036669250572</v>
       </c>
       <c r="Q30">
-        <v>1.936248372975914</v>
+        <v>1.831903183395901</v>
       </c>
       <c r="R30">
-        <v>193.8481588141577</v>
+        <v>258.6693484011762</v>
       </c>
       <c r="S30">
-        <v>6.932693242443481</v>
+        <v>6.245762185173184</v>
       </c>
       <c r="T30">
-        <v>4.397292295182197</v>
+        <v>5.104103924988794</v>
       </c>
       <c r="U30">
-        <v>1.480988964037043</v>
+        <v>1.630044907314192</v>
       </c>
       <c r="V30">
-        <v>82.01153308996126</v>
+        <v>189.8008745808855</v>
       </c>
       <c r="W30">
-        <v>399.2089734451661</v>
+        <v>229.749970213205</v>
       </c>
       <c r="X30">
         <v>544.6020043679416</v>
       </c>
       <c r="Y30">
-        <v>256.8358273231722</v>
+        <v>147.1286800156894</v>
       </c>
       <c r="Z30">
-        <v>1.554335224979528</v>
+        <v>1.561558019746422</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>20</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>219.1399614549425</v>
+        <v>372.2532641027187</v>
       </c>
       <c r="H31">
-        <v>33.67241476618467</v>
+        <v>68.05061937643411</v>
       </c>
       <c r="I31">
-        <v>185.4675466887578</v>
+        <v>304.2026447262846</v>
       </c>
       <c r="J31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K31">
-        <v>336.1328984332248</v>
+        <v>441.9506870322547</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N31">
-        <v>0.5517685045208458</v>
+        <v>0.688318071794474</v>
       </c>
       <c r="O31">
-        <v>361.2764375039665</v>
+        <v>478.3173340777398</v>
       </c>
       <c r="P31">
-        <v>25.14353907074164</v>
+        <v>36.36664704548516</v>
       </c>
       <c r="Q31">
-        <v>2.665042452404041</v>
+        <v>2.576622326411876</v>
       </c>
       <c r="R31">
-        <v>269.1242994060187</v>
+        <v>348.2475723181171</v>
       </c>
       <c r="S31">
-        <v>14.3685595129433</v>
+        <v>13.15263773092664</v>
       </c>
       <c r="T31">
-        <v>6.507996619090489</v>
+        <v>5.4702406460628</v>
       </c>
       <c r="U31">
-        <v>1.873031669856117</v>
+        <v>1.69932260926195</v>
       </c>
       <c r="V31">
-        <v>122.3980474311632</v>
+        <v>188.5626886456307</v>
       </c>
       <c r="W31">
-        <v>345.2517396088334</v>
+        <v>226.5166415713066</v>
       </c>
       <c r="X31">
         <v>530.7192862975912</v>
       </c>
       <c r="Y31">
-        <v>194.5863878643664</v>
+        <v>88.76859926533655</v>
       </c>
       <c r="Z31">
-        <v>1.774285156315693</v>
+        <v>2.551765415315725</v>
       </c>
     </row>
   </sheetData>
